--- a/Tables/Sum_Stat_Table_Reason_sold.xlsx
+++ b/Tables/Sum_Stat_Table_Reason_sold.xlsx
@@ -661,16 +661,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.12463425902161079</v>
+        <v>0.11557954849647541</v>
       </c>
       <c r="E3" s="2">
-        <v>0.40943312287185812</v>
+        <v>0.39076470063353258</v>
       </c>
       <c r="G3" s="3">
-        <v>2.2933260959018051</v>
+        <v>2.2525940248917462</v>
       </c>
       <c r="I3" s="4">
-        <v>0.83633958478303261</v>
+        <v>0.84337934225601674</v>
       </c>
     </row>
     <row r="4">
@@ -678,16 +678,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>0.23930154167308321</v>
+        <v>0.24958508075310071</v>
       </c>
       <c r="E4" s="6">
-        <v>0.44357750286604042</v>
+        <v>0.44822878558044071</v>
       </c>
       <c r="G4" s="7">
-        <v>2.252440444401643</v>
+        <v>2.2617536788402011</v>
       </c>
       <c r="I4" s="8">
-        <v>0.71293154761468347</v>
+        <v>0.76256716246294776</v>
       </c>
     </row>
     <row r="5">
@@ -695,16 +695,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="9">
-        <v>0.068254538610269797</v>
+        <v>0.0567770143660212</v>
       </c>
       <c r="E5" s="10">
-        <v>0.26542956384853622</v>
+        <v>0.24057285625055769</v>
       </c>
       <c r="G5" s="11">
-        <v>1.790569594412641</v>
+        <v>1.731767714514691</v>
       </c>
       <c r="I5" s="12">
-        <v>0.1538419295399745</v>
+        <v>0.1331194410375833</v>
       </c>
     </row>
     <row r="6">
@@ -712,16 +712,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="13">
-        <v>0.069649059767636801</v>
+        <v>0.050789685018292098</v>
       </c>
       <c r="E6" s="14">
-        <v>0.23058364560340849</v>
+        <v>0.20422949942000529</v>
       </c>
       <c r="G6" s="15">
-        <v>1.715437616550372</v>
+        <v>1.645814610056556</v>
       </c>
       <c r="I6" s="16">
-        <v>0.058438834196492401</v>
+        <v>0.0251020110478982</v>
       </c>
     </row>
     <row r="7">
@@ -729,16 +729,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="17">
-        <v>0.068442756189791801</v>
+        <v>0.056973320246274599</v>
       </c>
       <c r="E7" s="18">
-        <v>0.1760005475420495</v>
+        <v>0.1617114303560275</v>
       </c>
       <c r="G7" s="19">
-        <v>1.546204288178181</v>
+        <v>1.50723058906833</v>
       </c>
       <c r="I7" s="20">
-        <v>-0.1723526105078598</v>
+        <v>-0.1738126755431017</v>
       </c>
     </row>
     <row r="8">
@@ -746,16 +746,16 @@
         <v>9</v>
       </c>
       <c r="C8" s="21">
-        <v>0.059442533750834199</v>
+        <v>0.047586329972338699</v>
       </c>
       <c r="E8" s="22">
-        <v>0.13377992231747171</v>
+        <v>0.1176764522173641</v>
       </c>
       <c r="G8" s="23">
-        <v>1.4330902373468981</v>
+        <v>1.3899434443566909</v>
       </c>
       <c r="I8" s="24">
-        <v>-0.31177560793528197</v>
+        <v>-0.31890704124478658</v>
       </c>
     </row>
     <row r="9">
@@ -763,16 +763,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="25">
-        <v>0.040235785295073802</v>
+        <v>0.027554207191933602</v>
       </c>
       <c r="E9" s="26">
-        <v>0.1168317848159746</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="G9" s="27">
-        <v>1.377750151023017</v>
+        <v>1.332561707381283</v>
       </c>
       <c r="I9" s="28">
-        <v>-0.34987680964825141</v>
+        <v>-0.3585581016653821</v>
       </c>
     </row>
     <row r="10">
@@ -780,16 +780,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="29">
-        <v>0.0024896052564037001</v>
+        <v>0.0025965914160791998</v>
       </c>
       <c r="E10" s="30">
-        <v>0.1078657837551118</v>
+        <v>0.098090479164807703</v>
       </c>
       <c r="G10" s="31">
-        <v>1.3414520972500681</v>
+        <v>1.324727434479879</v>
       </c>
       <c r="I10" s="32">
-        <v>-0.38777223939396172</v>
+        <v>-0.37417683602927548</v>
       </c>
     </row>
     <row r="11">
@@ -797,16 +797,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="33">
-        <v>0.0159813835703164</v>
+        <v>0.0022575176229141999</v>
       </c>
       <c r="E11" s="34">
-        <v>0.0679123248293209</v>
+        <v>0.056420094583742302</v>
       </c>
       <c r="G11" s="35">
-        <v>1.234046278705317</v>
+        <v>1.1986982216291291</v>
       </c>
       <c r="I11" s="36">
-        <v>-0.53977466266186225</v>
+        <v>-0.53871334514610825</v>
       </c>
     </row>
   </sheetData>
